--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/Inicio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{28F16F00-273A-4D7D-AB8D-B184F2312491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{256E65F4-758B-4D99-AEED-A13493F8C834}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{28F16F00-273A-4D7D-AB8D-B184F2312491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6DB0CC-7E8F-4984-9A5A-07D40334D823}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53D9230A-6E33-4699-B8A9-3FF986F56B32}"/>
   </bookViews>
@@ -44,36 +44,14 @@
     <t>Pregunta</t>
   </si>
   <si>
-    <t>¿Se puede cerrar una sucursal durante un día laboral?</t>
-  </si>
-  <si>
-    <t>La o el Seremi de mi Región solicitó un vehículo institucional para una actividad de la Seremía.
- ¿Le puedo "prestar" el vehículo?</t>
-  </si>
-  <si>
     <t>No, los vehículos que se utilizan en el ISL no son vehículos fiscales, son arrendados y no pueden ser utilizados en ninguna función que no
 esté contemplada en el contrato de arriendo respectivo.</t>
   </si>
   <si>
-    <t>¿Cuándo se puede cerrar una surcusal en horario laboral?</t>
-  </si>
-  <si>
     <t>¿Qué se debe hacer si por motivos extraordinarios se 
 debe cerrar una sucursal?</t>
   </si>
   <si>
-    <t>¿La Directora o Director Nacional viene a mi Región y llega al aeropuerto.
-¿Se puede ir a buscar a la Directora o Director en el vehículo institucional?</t>
-  </si>
-  <si>
-    <t>¿Hay un problema con los estacionamientos y los vehículos no pueden quedar guardados después del horario laboral.
-Puede el funcionario llevarse el vehículo a su hogar, donde quedaría resguardado?</t>
-  </si>
-  <si>
-    <t>Se cortó la luz. 
-¿Es posible activar las VPN y que que las o los funcionarios trabajen desde sus hogares?</t>
-  </si>
-  <si>
     <t>No, no se puede cerrar una surcursal, a no ser que existan razones extraordinarias que justifiquen su cierre.</t>
   </si>
   <si>
@@ -85,6 +63,28 @@
   </si>
   <si>
     <t>No, ningún funcionario o funcionaria puede llevarse el vehículo institucional a su hogar, independiente del motivo.</t>
+  </si>
+  <si>
+    <t>¿Se puede cerrar una sucursal en horario de atención a público?</t>
+  </si>
+  <si>
+    <t>¿Cuándo se puede cerrar una surcusal en horario de atención de público?</t>
+  </si>
+  <si>
+    <t>La o el Seremi de mi Región solicitó un vehículo institucional para una actividad de la Seremía.
+ ¿Se puede "prestar" el vehículo?</t>
+  </si>
+  <si>
+    <t>La Directora o Director Nacional viene a la Región, llega al aeropuerto y e hará uso del vehículo institucional
+para facilitar su traslado.</t>
+  </si>
+  <si>
+    <t>Existe un problema con los estacionamientos y los vehículos no pueden quedar guardados después del horario laboral.
+¿Puede el funcionario a cargo llevarse el vehículo a su hogar, para que quede resguardado?</t>
+  </si>
+  <si>
+    <t>Se cortó la luz. 
+¿Es posible activar las VPN para que las o los funcionarios trabajen desde sus hogares?</t>
   </si>
 </sst>
 </file>
@@ -465,13 +465,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" customWidth="1"/>
+    <col min="2" max="2" width="145.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,55 +484,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/preguntas.xlsx
+++ b/preguntas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/Inicio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://islgob-my.sharepoint.com/personal/pclaissacs_isl_gob_cl/Documents/2.- 2025/1.Coordinación Regional/Códigos-Aplicaciones/Inicio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{28F16F00-273A-4D7D-AB8D-B184F2312491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA6DB0CC-7E8F-4984-9A5A-07D40334D823}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{28F16F00-273A-4D7D-AB8D-B184F2312491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BE16F0A-22F2-41B9-A017-3BDAA894F958}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53D9230A-6E33-4699-B8A9-3FF986F56B32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53D9230A-6E33-4699-B8A9-3FF986F56B32}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Respuesta</t>
   </si>
@@ -85,6 +85,23 @@
   <si>
     <t>Se cortó la luz. 
 ¿Es posible activar las VPN para que las o los funcionarios trabajen desde sus hogares?</t>
+  </si>
+  <si>
+    <t>El Dictamen N° 014953N18 de la Contraloría General de la República, emitido en el año 2018, estableció expresamente que los funcionarios públicos no pueden recibir reembolso por gastos en servicios de transporte no regulados, señalando que sólo corresponde el uso de servicios debidamente autorizados.
+Según pronunciamiento de nuestro Dpto. Jurídico mediante el Memo N° 687, de fecha 16-09-2025 (se adjunta), se establece lo siguiente:
+A pesar de que la normativa reconoce la figura de las EAT, no existe confirmación oficial de que Uber, Cabify u otras plataformas cumplan de manera íntegra y uniforme con los requisitos legales exigidos, tales como:
+       - Validación oficial de sus mecanismos tarifarios por parte de la autoridad competente (Subsecretaría de Transportes).
+       - Autorización formal en todas las regiones del país por parte de Secretaría Regional Ministerial de Transportes y Telecomunicaciones.
+       - Inscripción efectiva de sus vehículos en el Registro Nacional de Servicios de Transporte de Pasajeros (RNSTP).
+En consecuencia, mientras no exista reglamentación clara y un reconocimiento expreso por parte de los organismos competentes, no es posible autorizar el uso ni el reembolso de gastos asociados a estas plataformas en el ejercicio de la función pública.
+De lo contrario, se estaría vulnerando principios rectores del derecho administrativo y de la gestión pública, entre ellos:
+       - Principio de Legalidad: sólo se puede actuar conforme a lo que autoriza la normativa vigente.
+       - Principio de Probidad Administrativa: uso correcto y transparente de los recursos fiscales.
+       - Principio de Control y Rendición de Cuentas: obligación de respaldar todo gasto con normativa expresa que lo valide.
+Mientras no exista un reglamento formal que habilite el uso de estas plataformas para fines institucionales, se mantiene la restricción vigente, debiendo utilizarse únicamente servicios de transporte regulados y autorizados.</t>
+  </si>
+  <si>
+    <t>¿Puedo hacer uso de plataformas como Uber o Cabify para traslados?</t>
   </si>
 </sst>
 </file>
@@ -120,13 +137,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631109AD-9F86-4E43-B390-B72F2185743D}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +555,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
